--- a/Línea Base/LB01/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
+++ b/Línea Base/LB01/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\Desarrollo\Edutec\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6F6159-E1A1-4994-ABBE-3AF1432632A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FA54CF-03B4-4241-BBA2-C67F6A03056B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,23 @@
     <sheet name="CA_D_CURSO" sheetId="4" r:id="rId5"/>
     <sheet name="CA_P_USUARIO" sheetId="5" r:id="rId6"/>
     <sheet name="CA_FAVORITOS" sheetId="6" r:id="rId7"/>
-    <sheet name="CA_LISTAR_U" sheetId="7" r:id="rId8"/>
-    <sheet name="CA_LISTAR_I" sheetId="8" r:id="rId9"/>
+    <sheet name="CA_LISTAR_I" sheetId="8" r:id="rId8"/>
+    <sheet name="CA_LISTAR_U" sheetId="7" r:id="rId9"/>
     <sheet name="CA_B_INSTITUTOS" sheetId="9" r:id="rId10"/>
     <sheet name="CA_D_INSITUTOS" sheetId="10" r:id="rId11"/>
     <sheet name="CA_REPORTES" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7miFo66tI5Krd8N3QFh+myzfHXGpsw=="/>
     </ext>
@@ -36,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
   <si>
     <t>Modificación de Historias de Usuario</t>
   </si>
@@ -301,6 +310,21 @@
   <si>
     <t>Product Backlog</t>
   </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>Recuperar contraseña</t>
+  </si>
+  <si>
+    <t>deseo restablecer mi contraseña</t>
+  </si>
+  <si>
+    <t>para poder ingresar al sistema en caso haya olvidado mi contraseña</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
 </sst>
 </file>
 
@@ -483,21 +507,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -516,11 +534,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -542,6 +555,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,7 +636,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2876550" cy="542925"/>
+    <xdr:ext cx="3409950" cy="1076325"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3">
@@ -617,8 +650,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3912488" y="3513300"/>
-          <a:ext cx="2867025" cy="533400"/>
+          <a:off x="12468225" y="762000"/>
+          <a:ext cx="3409950" cy="1076325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -661,9 +694,8 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Longitud máxima de 50 caracteres y solo debe</a:t>
+            <a:t>Longitud máxima de 50 caracteres.</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -675,19 +707,75 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>admitir letras.</a:t>
+            <a:t>Si no se</a:t>
           </a:r>
-          <a:endParaRPr sz="1100"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> completa este campo, se mostrará el siguiente mensaje debajo de este:</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" rtl="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Nombre de usuario requerido</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -696,11 +784,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2628900" cy="1809750"/>
+    <xdr:ext cx="2619376" cy="1519238"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2">
@@ -714,10 +802,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9848850" y="1009650"/>
-          <a:ext cx="2628900" cy="1809750"/>
-          <a:chOff x="4041075" y="2879813"/>
-          <a:chExt cx="2609700" cy="1800300"/>
+          <a:off x="9848849" y="1300163"/>
+          <a:ext cx="2619376" cy="1519238"/>
+          <a:chOff x="4041075" y="3168809"/>
+          <a:chExt cx="2600246" cy="1511305"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -734,9 +822,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4041075" y="2879813"/>
-            <a:ext cx="2609700" cy="1800300"/>
+          <a:xfrm flipV="1">
+            <a:off x="4041075" y="3168809"/>
+            <a:ext cx="2600246" cy="1511305"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -763,7 +851,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2876550" cy="542925"/>
+    <xdr:ext cx="3771900" cy="1466850"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Shape 5">
@@ -777,8 +865,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3912488" y="3513300"/>
-          <a:ext cx="2867025" cy="533400"/>
+          <a:off x="12439650" y="2095500"/>
+          <a:ext cx="3771900" cy="1466850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -823,6 +911,96 @@
             </a:rPr>
             <a:t>Longitud máxima de 50 caracteres y debe ser de formato email.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dependiendo del error,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> se mostrará debajo del campo uno de los siguientes mensajes:</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" rtl="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Correo electrónico requerido</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" rtl="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ingrese un correo válido</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
           <a:endParaRPr sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -833,10 +1011,10 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2838450" cy="666750"/>
+    <xdr:ext cx="2838450" cy="1895475"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Shape 6">
@@ -850,8 +1028,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3931538" y="3451388"/>
-          <a:ext cx="2828925" cy="657225"/>
+          <a:off x="12430125" y="4190999"/>
+          <a:ext cx="2838450" cy="1895475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -894,8 +1072,144 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Debe admitir caracteres alfanúmericos y no debe tener ninguna restricción de validación de mayusculas, caracteres especiales, etc.</a:t>
+            <a:t>Debe admitir caracteres alfanúmericos y no debe tener ninguna restricción de validación de mayusculas, caracteres especiales, etc. </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Longitud</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> mínima de 8 caracteres.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Si no se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> completa este campo, se mostrará el siguiente mensaje debajo de este:</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" rtl="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Contraseña requerida</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
           <a:endParaRPr sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -904,12 +1218,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2933700" cy="695325"/>
+    <xdr:ext cx="3295650" cy="2562225"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Shape 7">
@@ -923,8 +1237,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3883913" y="3437100"/>
-          <a:ext cx="2924175" cy="685800"/>
+          <a:off x="2076450" y="1190625"/>
+          <a:ext cx="3295650" cy="2562225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -948,6 +1262,48 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Si</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> los datos ingresados son correctos, se registran los datos, se redirige a la pantalla de Login y se muestra un modal emergente en la esquina superior derecha con el mensaje "Registro exitoso".</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>En caso de que no se completará el formulario, al hacer clic se mostrará el mensaje de campo requerido.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
@@ -957,19 +1313,29 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Al hacer clic se debe guardar la información del cliente en la base de datos y se debe mostrar la pantalla de inicio.</a:t>
+            <a:t>Si ocurre un error se mostrará un modal emergente, en la esquina superior derecha, indicando el mensaje de error.</a:t>
           </a:r>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -978,11 +1344,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2590800" cy="981075"/>
+    <xdr:ext cx="2581276" cy="504828"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="8" name="Shape 2">
@@ -996,10 +1362,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9858375" y="2352675"/>
-          <a:ext cx="2590800" cy="981075"/>
-          <a:chOff x="4060125" y="3298913"/>
-          <a:chExt cx="2571600" cy="962100"/>
+          <a:off x="9858374" y="2828925"/>
+          <a:ext cx="2581276" cy="504828"/>
+          <a:chOff x="4060125" y="3765951"/>
+          <a:chExt cx="2562147" cy="495064"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -1016,9 +1382,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4060125" y="3298913"/>
-            <a:ext cx="2571600" cy="962100"/>
+          <a:xfrm flipV="1">
+            <a:off x="4060125" y="3765951"/>
+            <a:ext cx="2562147" cy="495064"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1041,11 +1407,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28572</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2628900" cy="76200"/>
+    <xdr:ext cx="2571751" cy="1300173"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="10" name="Shape 2">
@@ -1059,10 +1425,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9810750" y="3686175"/>
-          <a:ext cx="2628900" cy="76200"/>
-          <a:chOff x="4041075" y="3751425"/>
-          <a:chExt cx="2609700" cy="57300"/>
+          <a:off x="9858374" y="3838572"/>
+          <a:ext cx="2571751" cy="1300173"/>
+          <a:chOff x="4041075" y="4317263"/>
+          <a:chExt cx="2600071" cy="110162"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -1080,8 +1446,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4041075" y="3751425"/>
-            <a:ext cx="2609700" cy="57300"/>
+            <a:off x="4041075" y="4317263"/>
+            <a:ext cx="2600071" cy="110162"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1104,11 +1470,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3305175" cy="1381125"/>
+    <xdr:ext cx="3295652" cy="1671641"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="12" name="Shape 2">
@@ -1122,10 +1488,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5362575" y="2762250"/>
-          <a:ext cx="3305175" cy="1381125"/>
-          <a:chOff x="3702863" y="3099038"/>
-          <a:chExt cx="3286200" cy="1362000"/>
+          <a:off x="5372100" y="2471738"/>
+          <a:ext cx="3295652" cy="1671641"/>
+          <a:chOff x="3712334" y="2812549"/>
+          <a:chExt cx="3276732" cy="1648493"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -1142,9 +1508,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="3702863" y="3099038"/>
-            <a:ext cx="3286200" cy="1362000"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="3712334" y="2812549"/>
+            <a:ext cx="3276732" cy="1648493"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1230,9 +1596,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2552700" cy="495300"/>
     <xdr:sp macro="" textlink="">
@@ -1248,8 +1614,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4074413" y="3537113"/>
-          <a:ext cx="2543175" cy="485775"/>
+          <a:off x="2552700" y="4048125"/>
+          <a:ext cx="2552700" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2644,11 +3010,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2133600" cy="561975"/>
+    <xdr:ext cx="2809875" cy="1333499"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Shape 13">
@@ -2662,8 +3028,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4283963" y="3503775"/>
-          <a:ext cx="2124075" cy="552450"/>
+          <a:off x="11372849" y="476251"/>
+          <a:ext cx="2809875" cy="1333499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2708,6 +3074,116 @@
             </a:rPr>
             <a:t>Longitud máxima de 50 caracteres y debe ser de formato email.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Dependiendo del error,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> se mostrará debajo del campo uno de los siguientes mensajes:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Correo electrónico requerido</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Ingrese un correo válido</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
           <a:endParaRPr sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2782,9 +3258,9 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2638425" cy="857250"/>
+    <xdr:ext cx="3086100" cy="1819276"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="Shape 15">
@@ -2798,8 +3274,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4031550" y="3356138"/>
-          <a:ext cx="2628900" cy="847725"/>
+          <a:off x="11258550" y="2171699"/>
+          <a:ext cx="3086100" cy="1819276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2842,7 +3318,66 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Debe admitir caracteres alfanúmericos y no debe tener ninguna restricción de validación de mayusculas, caracteres especiales, etc. Campo requerido.</a:t>
+            <a:t>Debe admitir caracteres alfanúmericos y no debe tener ninguna restricción de validación de mayusculas, caracteres especiales, etc. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Si no se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ingresa la contraseña, se mostrará el siguiente mensaje debajo del campo:</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" rtl="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Contraseña requerida</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -2887,7 +3422,7 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:endCxn id="5" idx="1"/>
+            <a:cxnSpLocks/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2916,11 +3451,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2276475" cy="542925"/>
+    <xdr:ext cx="3495676" cy="1704975"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="Shape 17">
@@ -2934,8 +3469,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4212525" y="3513300"/>
-          <a:ext cx="2266950" cy="533400"/>
+          <a:off x="11401424" y="4591049"/>
+          <a:ext cx="3495676" cy="1704975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2974,13 +3509,112 @@
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic nos redirige a la pantalla de login.</a:t>
+            <a:t>Si</a:t>
           </a:r>
-          <a:endParaRPr sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> los datos ingresados son correctos, nos redirige a la pantalla de inicio.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>En caso de que no se completará el formulario, al hacer clic se mostrará el mensaje de campo requerido.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Si ocurre un error se mostrará un modal emergente, en la esquina superior derecha, indicando el mensaje de error.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2988,12 +3622,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85893</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3152775" cy="38100"/>
+    <xdr:ext cx="3581398" cy="1738157"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="4" name="Shape 2">
@@ -3007,10 +3641,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8229600" y="4076700"/>
-          <a:ext cx="3152775" cy="38100"/>
-          <a:chOff x="3769613" y="3770475"/>
-          <a:chExt cx="3152700" cy="18900"/>
+          <a:off x="7820026" y="3705393"/>
+          <a:ext cx="3581398" cy="1738157"/>
+          <a:chOff x="3788663" y="4143751"/>
+          <a:chExt cx="3152698" cy="28270"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -3028,8 +3662,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3769613" y="3770475"/>
-            <a:ext cx="3152700" cy="18900"/>
+            <a:off x="3788663" y="4143751"/>
+            <a:ext cx="3152698" cy="28270"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -3051,18 +3685,79 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76368</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2609850" cy="647700"/>
+    <xdr:ext cx="1447801" cy="1781007"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2AC4CB-AF1C-4C69-9C82-DC8AC3C974A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="6457949" y="4286418"/>
+          <a:ext cx="1447801" cy="1781007"/>
+          <a:chOff x="3788663" y="4143751"/>
+          <a:chExt cx="3152698" cy="28270"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="Shape 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84750C21-4F20-4640-99D3-34E8AD8F4F56}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3788663" y="4143751"/>
+            <a:ext cx="3152698" cy="28270"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2600325" cy="447676"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Shape 19">
+        <xdr:cNvPr id="23" name="Shape 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE2AF81-0E40-4D8F-B0BC-166987B1C1BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3070,8 +3765,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4045838" y="3460913"/>
-          <a:ext cx="2600325" cy="638175"/>
+          <a:off x="3867149" y="6057899"/>
+          <a:ext cx="2600325" cy="447676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3105,16 +3800,12 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Se debe verificar en la bd que sea un usuario registrado y su contraseña es correcta, luego redirigir a la pantalla de inicio.</a:t>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Al hacer clic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> debe redirigir a la pantalla de Registro</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -3122,242 +3813,55 @@
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3190875" cy="1000125"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3857625" y="2505075"/>
-          <a:ext cx="3190875" cy="1000125"/>
-          <a:chOff x="3760088" y="3284700"/>
-          <a:chExt cx="3171825" cy="990600"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="20" name="Shape 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="3760088" y="3284700"/>
-            <a:ext cx="3171825" cy="990600"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>327587</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7267575" cy="9791700"/>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>378568</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>111423</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="image3.png">
+        <xdr:cNvPr id="12" name="Imagen 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46AA7B97-E311-4455-88F3-1D86F9CA48BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2438400" cy="542925"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Shape 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
         <a:xfrm>
-          <a:off x="4131563" y="3513300"/>
-          <a:ext cx="2428875" cy="533400"/>
+          <a:off x="6042587" y="1809750"/>
+          <a:ext cx="7194731" cy="8512473"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Al hacer clic nos redirige a la pantalla de  Login.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1047750" cy="1657350"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11496675" y="1200150"/>
-          <a:ext cx="1047750" cy="1657350"/>
-          <a:chOff x="4831650" y="2960850"/>
-          <a:chExt cx="1028700" cy="1638300"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="22" name="Shape 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="3" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4831650" y="2960850"/>
-            <a:ext cx="1028700" cy="1638300"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
@@ -3423,7 +3927,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic nos redirige a la pantalla de  Registro.</a:t>
+            <a:t>Al hacer clic nos redirige a la pantalla de  Login.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -3434,11 +3938,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85713</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1190625" cy="390525"/>
+    <xdr:ext cx="1000125" cy="133349"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="3" name="Shape 2">
@@ -3452,10 +3956,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12630150" y="2562225"/>
-          <a:ext cx="1190625" cy="390525"/>
-          <a:chOff x="4760213" y="3594338"/>
-          <a:chExt cx="1171500" cy="371400"/>
+          <a:off x="12820650" y="2562213"/>
+          <a:ext cx="1000125" cy="133349"/>
+          <a:chOff x="4947653" y="3594339"/>
+          <a:chExt cx="984060" cy="126819"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -3472,9 +3976,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4760213" y="3594338"/>
-            <a:ext cx="1171500" cy="371400"/>
+          <a:xfrm flipV="1">
+            <a:off x="4947653" y="3594339"/>
+            <a:ext cx="984060" cy="126819"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -3559,7 +4063,19 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Permite ordenar los resultados de acuerdo a criterios especificos como precio, duración etc.</a:t>
+            <a:t>Se mostrará</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> el total de cursos encontrados al realizar la búsqueda.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -3570,11 +4086,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>571499</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2400300" cy="542925"/>
+    <xdr:ext cx="2466975" cy="676275"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="Shape 26">
@@ -3588,8 +4104,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4150613" y="3513300"/>
-          <a:ext cx="2390775" cy="533400"/>
+          <a:off x="2000249" y="7019925"/>
+          <a:ext cx="2466975" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3632,7 +4148,19 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic nos redirige a la pantalla de  Detalle de curso.</a:t>
+            <a:t>Se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> mostrará una lista de las 5 últimas búsquedas realizadas, al hacer clic en estas se ejecutará la búsqueda</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -3645,9 +4173,9 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2400300" cy="704850"/>
+    <xdr:ext cx="2400300" cy="885825"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="Shape 27">
@@ -3661,8 +4189,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4150613" y="3432338"/>
-          <a:ext cx="2390775" cy="695325"/>
+          <a:off x="1971675" y="5219699"/>
+          <a:ext cx="2400300" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3705,7 +4233,19 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Permiten filtrar las busquedas de acuerdo a criterios especificos como precio, duración, etc.</a:t>
+            <a:t>Se permitirá filtrar las busquedas de acuerdo a criterios especificos como: Fecha, Mayor a menor precio,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> Menor a mayor precio</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -3720,7 +4260,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2400300" cy="542925"/>
+    <xdr:ext cx="2400300" cy="1152525"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="Shape 28">
@@ -3734,8 +4274,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4150613" y="3513300"/>
-          <a:ext cx="2390775" cy="533400"/>
+          <a:off x="1981200" y="3448050"/>
+          <a:ext cx="2400300" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3778,7 +4318,41 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic nos redirige a la pantalla de  Home.</a:t>
+            <a:t>Se mostrará</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> un cuadro de búsqueda.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Al hacer clic en el botón buscar o presionar la tecla enter, se ejecutará la búsqueda</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -3851,7 +4425,19 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic muestra un menu con todas las categorias.</a:t>
+            <a:t>Se mostrará</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> el mensaje para una búsqueda efectuada, mencionando el término de búsqueda</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -3862,11 +4448,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1352550" cy="152400"/>
+    <xdr:ext cx="990600" cy="419100"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="4" name="Shape 2">
@@ -3880,8 +4466,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12468225" y="3743325"/>
-          <a:ext cx="1352550" cy="152400"/>
+          <a:off x="12830175" y="3448050"/>
+          <a:ext cx="990600" cy="419100"/>
           <a:chOff x="4679250" y="3713325"/>
           <a:chExt cx="1333500" cy="133200"/>
         </a:xfrm>
@@ -3925,11 +4511,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3800475" cy="838200"/>
+    <xdr:ext cx="2352677" cy="1895475"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="5" name="Shape 2">
@@ -3943,10 +4529,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4381500" y="6457950"/>
-          <a:ext cx="3800475" cy="838200"/>
-          <a:chOff x="3455213" y="3370425"/>
-          <a:chExt cx="3781500" cy="819300"/>
+          <a:off x="4448176" y="5229225"/>
+          <a:ext cx="2352677" cy="1895475"/>
+          <a:chOff x="3521555" y="2169406"/>
+          <a:chExt cx="2340930" cy="1852735"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -3958,14 +4544,12 @@
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="18" idx="3"/>
-          </xdr:cNvCxnSpPr>
+          <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="3455213" y="3370425"/>
-            <a:ext cx="3781500" cy="819300"/>
+            <a:off x="3521555" y="2169406"/>
+            <a:ext cx="2340930" cy="1852735"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -3989,10 +4573,10 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1895475" cy="828675"/>
+    <xdr:ext cx="2219325" cy="1085850"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="6" name="Shape 2">
@@ -4006,8 +4590,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4352925" y="4743450"/>
-          <a:ext cx="1895475" cy="828675"/>
+          <a:off x="4352925" y="4486276"/>
+          <a:ext cx="2219325" cy="1085850"/>
           <a:chOff x="4407713" y="3375188"/>
           <a:chExt cx="1876500" cy="809700"/>
         </a:xfrm>
@@ -4022,7 +4606,7 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:endCxn id="9" idx="3"/>
+            <a:cxnSpLocks/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4051,11 +4635,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2076450" cy="781050"/>
+    <xdr:ext cx="2152649" cy="138113"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="7" name="Shape 2">
@@ -4068,11 +4652,11 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4371975" y="2990850"/>
-          <a:ext cx="2076450" cy="781050"/>
-          <a:chOff x="4317300" y="3399000"/>
-          <a:chExt cx="2057400" cy="762000"/>
+        <a:xfrm flipV="1">
+          <a:off x="4381500" y="3886200"/>
+          <a:ext cx="2152649" cy="138113"/>
+          <a:chOff x="4326365" y="2478247"/>
+          <a:chExt cx="2048336" cy="920753"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -4089,9 +4673,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="4317300" y="3399000"/>
-            <a:ext cx="2057400" cy="762000"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4326365" y="2478247"/>
+            <a:ext cx="2048336" cy="920753"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4115,10 +4699,10 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1857375" cy="2000250"/>
+    <xdr:ext cx="3400425" cy="2209800"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="8" name="Shape 2">
@@ -4132,8 +4716,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5505450" y="981075"/>
-          <a:ext cx="1857375" cy="2000250"/>
+          <a:off x="5505450" y="1143000"/>
+          <a:ext cx="3400425" cy="2209800"/>
           <a:chOff x="4426763" y="2789400"/>
           <a:chExt cx="1838400" cy="1981200"/>
         </a:xfrm>
@@ -4155,132 +4739,6 @@
           <a:xfrm rot="10800000">
             <a:off x="4426763" y="2789400"/>
             <a:ext cx="1838400" cy="1981200"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1162050" cy="2200275"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8020050" y="733425"/>
-          <a:ext cx="1162050" cy="2200275"/>
-          <a:chOff x="4774500" y="2684475"/>
-          <a:chExt cx="1143000" cy="2190900"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="35" name="Shape 35">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="36" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="4774500" y="2684475"/>
-            <a:ext cx="1143000" cy="2190900"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="571500" cy="1895475"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="10229850" y="828675"/>
-          <a:ext cx="571500" cy="1895475"/>
-          <a:chOff x="5069775" y="2841713"/>
-          <a:chExt cx="552300" cy="1876500"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="37" name="Shape 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="38" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="5069775" y="2841713"/>
-            <a:ext cx="552300" cy="1876500"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4331,6 +4789,65 @@
           <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>688275</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>112875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2750250" cy="763425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Shape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D891D3-DEA2-48F8-BE6C-2393DC64CC12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13547025" y="8323425"/>
+          <a:ext cx="2750250" cy="763425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="BABABA"/>
           </a:solidFill>
@@ -4361,11 +4878,21 @@
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic usa el algoritmo de web sracping y nos muestra los resultados que coinciden con el valor del campo buscar.</a:t>
+            <a:t>Se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> mostrará botones de paginación en caso el número de resultados exceda la cantidad de cursos permitidos por página.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -4375,18 +4902,79 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2438400" cy="542925"/>
+    <xdr:ext cx="2324100" cy="438150"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="40" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E56EA3A-AF65-4C9E-814D-7E6A05E532D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="11258550" y="8639175"/>
+          <a:ext cx="2324100" cy="438150"/>
+          <a:chOff x="4426763" y="2789400"/>
+          <a:chExt cx="1838400" cy="1981200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="41" name="Shape 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EBC432F-1EF2-4826-B284-029AB352FAF2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="4426763" y="2789400"/>
+            <a:ext cx="1838400" cy="1981200"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>621600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>65250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2750250" cy="1392075"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Shape 36">
+        <xdr:cNvPr id="44" name="Shape 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0ED98AF-CAF4-4FDC-B576-A04124915A39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4394,8 +4982,227 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4131563" y="3513300"/>
-          <a:ext cx="2428875" cy="533400"/>
+          <a:off x="13480350" y="5675475"/>
+          <a:ext cx="2750250" cy="1392075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Se mostrará el resumen de cada</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> curso, presentando información básica como:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Precio, Horario y Fecha de Inicio.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Tambien se mostrará una breve descripción</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> prodrá hacer clic en todo el cuadro del curso, lo cual redirigirá a la página de detalle del curso.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="990600" cy="419100"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="45" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95ACED8E-EB2D-4925-81E5-B9C43509B31E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12458700" y="5553075"/>
+          <a:ext cx="990600" cy="419100"/>
+          <a:chOff x="4679250" y="3713325"/>
+          <a:chExt cx="1333500" cy="133200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="46" name="Shape 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF5F5C1-4EA4-43D7-928F-F24679771E0F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4679250" y="3713325"/>
+            <a:ext cx="1333500" cy="133200"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>688275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2695575" cy="542925"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Shape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54160C93-7029-4123-91DB-13488D46162C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13547025" y="4656300"/>
+          <a:ext cx="2695575" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4438,7 +5245,19 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Permite caracteres alfanúmericos y debe ser menor a 50 caracteres.</a:t>
+            <a:t>En</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> caso no se encuentren resultados, se mostrará un mensaje.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -4446,45 +5265,101 @@
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Shape 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFDA098-FEAC-4B3F-A3DC-C46034E027C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10039350" y="3638550"/>
+          <a:ext cx="3495675" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>149488</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7296150" cy="9439275"/>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>994</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>197210</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="image4.png">
+        <xdr:cNvPr id="12" name="Imagen 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56516F1-5610-4C9E-B438-1F73FE533D49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="1673488"/>
+          <a:ext cx="7544794" cy="8734522"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
@@ -4550,7 +5425,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Al hacer clic nos redirige a la pantalla de  Registro.</a:t>
+            <a:t>Al hacer clic nos redirige a la pantalla de  Login.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -4560,12 +5435,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2266950" cy="914400"/>
+    <xdr:ext cx="1800225" cy="257175"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2">
@@ -4579,8 +5454,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10429875" y="2400300"/>
-          <a:ext cx="2266950" cy="914400"/>
+          <a:off x="10896599" y="2400300"/>
+          <a:ext cx="1800225" cy="257175"/>
           <a:chOff x="4222050" y="3332475"/>
           <a:chExt cx="2247900" cy="895200"/>
         </a:xfrm>
@@ -4595,7 +5470,7 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:endCxn id="3" idx="1"/>
+            <a:cxnSpLocks/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4619,142 +5494,6 @@
         </xdr:spPr>
       </xdr:cxnSp>
     </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1104900" cy="1743075"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9296400" y="1428750"/>
-          <a:ext cx="1104900" cy="1743075"/>
-          <a:chOff x="4803075" y="2917913"/>
-          <a:chExt cx="1086000" cy="1724100"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="41" name="Shape 41">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="5" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4803075" y="2917913"/>
-            <a:ext cx="1086000" cy="1724100"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2400300" cy="561975"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Shape 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4150613" y="3503775"/>
-          <a:ext cx="2390775" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Al hacer clic nos redirige a la pantalla de  Login.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
@@ -4886,16 +5625,12 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Al hacer clic nos redirige a detalle de curso del curso en cuestión.</a:t>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> informará que no se encontró una descripción, en caso esta no este disponible.</a:t>
           </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
@@ -4979,11 +5714,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>571499</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>57212</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3133725" cy="657225"/>
+    <xdr:ext cx="2571750" cy="28575"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="4" name="Shape 2">
@@ -4997,10 +5732,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8582025" y="4067175"/>
-          <a:ext cx="3133725" cy="657225"/>
-          <a:chOff x="3788663" y="3460988"/>
-          <a:chExt cx="3114600" cy="638100"/>
+          <a:off x="9143999" y="4067237"/>
+          <a:ext cx="2571750" cy="28575"/>
+          <a:chOff x="4347208" y="3460989"/>
+          <a:chExt cx="2556055" cy="27743"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -5013,13 +5748,13 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:endCxn id="8" idx="1"/>
+            <a:cxnSpLocks/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="3788663" y="3460988"/>
-            <a:ext cx="3114600" cy="638100"/>
+          <a:xfrm flipV="1">
+            <a:off x="4347208" y="3460989"/>
+            <a:ext cx="2556055" cy="27743"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -5042,11 +5777,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>647701</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>161931</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3543300" cy="1047750"/>
+    <xdr:ext cx="3228975" cy="238125"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="5" name="Shape 2">
@@ -5060,10 +5795,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8191500" y="5172075"/>
-          <a:ext cx="3543300" cy="1047750"/>
-          <a:chOff x="3583875" y="3265650"/>
-          <a:chExt cx="3524100" cy="1028700"/>
+          <a:off x="8505826" y="5172081"/>
+          <a:ext cx="3228975" cy="238125"/>
+          <a:chOff x="3896497" y="3265650"/>
+          <a:chExt cx="3211478" cy="233795"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -5075,77 +5810,12 @@
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="17" idx="1"/>
-          </xdr:cNvCxnSpPr>
+          <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="3583875" y="3265650"/>
-            <a:ext cx="3524100" cy="1028700"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1847850" cy="1343025"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="10067925" y="8477250"/>
-          <a:ext cx="1847850" cy="1343025"/>
-          <a:chOff x="4431600" y="3118088"/>
-          <a:chExt cx="1828800" cy="1323900"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="48" name="Shape 48">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="44" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="4431600" y="3118088"/>
-            <a:ext cx="1828800" cy="1323900"/>
+          <a:xfrm flipV="1">
+            <a:off x="3896497" y="3265650"/>
+            <a:ext cx="3211478" cy="233795"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -5242,10 +5912,10 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3667125" cy="657225"/>
+    <xdr:ext cx="3962400" cy="47625"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="7" name="Shape 2">
@@ -5258,9 +5928,9 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3076575" y="5419725"/>
-          <a:ext cx="3667125" cy="657225"/>
+        <a:xfrm flipV="1">
+          <a:off x="3076575" y="5372100"/>
+          <a:ext cx="3962400" cy="47625"/>
           <a:chOff x="3522038" y="3460988"/>
           <a:chExt cx="3648000" cy="638100"/>
         </a:xfrm>
@@ -5282,6 +5952,67 @@
           <a:xfrm rot="10800000">
             <a:off x="3522038" y="3460988"/>
             <a:ext cx="3648000" cy="638100"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4819651" cy="1809750"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{797DB285-6E60-4E1B-B810-FBA2880AE261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6991349" y="6477000"/>
+          <a:ext cx="4819651" cy="1809750"/>
+          <a:chOff x="2238653" y="4397212"/>
+          <a:chExt cx="4793535" cy="1776842"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="26" name="Shape 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF827EF-1F54-4D02-9158-1BB4CE824821}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2238653" y="4397212"/>
+            <a:ext cx="4793535" cy="1776842"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -6830,317 +7561,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7286625" cy="4953000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image7.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2686050" cy="400050"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Shape 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4007738" y="3584738"/>
-          <a:ext cx="2676525" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Se puede ver a todos los usuarios registrados.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1476375" cy="323850"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4810125" y="2867025"/>
-          <a:ext cx="1476375" cy="323850"/>
-          <a:chOff x="4617263" y="3627600"/>
-          <a:chExt cx="1457400" cy="304800"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="72" name="Shape 72">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="3" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="4617263" y="3627600"/>
-            <a:ext cx="1457400" cy="304800"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2924175" cy="400050"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Shape 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3888675" y="3584738"/>
-          <a:ext cx="2914650" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="BABABA"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Se puede habilitar o deshabilitar a los usuarios.</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3181350" cy="647700"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11191875" y="2190750"/>
-          <a:ext cx="3181350" cy="647700"/>
-          <a:chOff x="3764850" y="3465825"/>
-          <a:chExt cx="3162300" cy="628500"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="74" name="Shape 74">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="44" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000" flipH="1">
-            <a:off x="3764850" y="3465825"/>
-            <a:ext cx="3162300" cy="628500"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-            <a:headEnd type="none" w="sm" len="sm"/>
-            <a:tailEnd type="triangle" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -7430,6 +7850,317 @@
           <a:xfrm rot="10800000" flipH="1">
             <a:off x="4017263" y="3118088"/>
             <a:ext cx="2657400" cy="1323900"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7286625" cy="4953000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="image7.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2686050" cy="400050"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Shape 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4007738" y="3584738"/>
+          <a:ext cx="2676525" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Se puede ver a todos los usuarios registrados.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1476375" cy="323850"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4810125" y="2867025"/>
+          <a:ext cx="1476375" cy="323850"/>
+          <a:chOff x="4617263" y="3627600"/>
+          <a:chExt cx="1457400" cy="304800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="72" name="Shape 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="3" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="4617263" y="3627600"/>
+            <a:ext cx="1457400" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2924175" cy="400050"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Shape 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3888675" y="3584738"/>
+          <a:ext cx="2914650" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="BABABA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Se puede habilitar o deshabilitar a los usuarios.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3181350" cy="647700"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11191875" y="2190750"/>
+          <a:ext cx="3181350" cy="647700"/>
+          <a:chOff x="3764850" y="3465825"/>
+          <a:chExt cx="3162300" cy="628500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="74" name="Shape 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="44" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipH="1">
+            <a:off x="3764850" y="3465825"/>
+            <a:ext cx="3162300" cy="628500"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -8508,10 +9239,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1007"/>
+  <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8555,11 +9286,11 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -8584,9 +9315,9 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -8611,11 +9342,11 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
         <v>85</v>
       </c>
       <c r="E4" s="2"/>
@@ -8642,11 +9373,11 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="19" t="s">
         <v>83</v>
       </c>
       <c r="E5" s="2"/>
@@ -8673,11 +9404,11 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17" t="s">
         <v>81</v>
       </c>
       <c r="E6" s="2"/>
@@ -8732,72 +9463,72 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>38</v>
+      <c r="D9" s="8" t="s">
+        <v>65</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="7">
         <v>93</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>5</v>
       </c>
       <c r="I9" s="2"/>
@@ -8820,26 +9551,26 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <v>88</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>3</v>
       </c>
       <c r="I10" s="2"/>
@@ -8862,29 +9593,27 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>61</v>
+      <c r="A11" s="25"/>
+      <c r="B11" s="8" t="s">
+        <v>88</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>62</v>
+      <c r="C11" s="8" t="s">
+        <v>89</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>61</v>
+      <c r="D11" s="8" t="s">
+        <v>65</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>38</v>
+      <c r="E11" s="8" t="s">
+        <v>90</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>60</v>
+      <c r="F11" s="8" t="s">
+        <v>91</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <v>85</v>
       </c>
-      <c r="H11" s="8">
-        <v>100</v>
+      <c r="H11" s="6">
+        <v>8</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -8906,27 +9635,29 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10" t="s">
-        <v>58</v>
+      <c r="A12" s="28" t="s">
+        <v>61</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>57</v>
+      <c r="B12" s="8" t="s">
+        <v>62</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>56</v>
+      <c r="E12" s="8" t="s">
+        <v>60</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>55</v>
+      <c r="F12" s="8" t="s">
+        <v>59</v>
       </c>
-      <c r="G12" s="9">
-        <v>81</v>
+      <c r="G12" s="7">
+        <v>85</v>
       </c>
-      <c r="H12" s="8">
-        <v>8</v>
+      <c r="H12" s="6">
+        <v>100</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -8948,29 +9679,27 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>54</v>
+      <c r="A13" s="29"/>
+      <c r="B13" s="8" t="s">
+        <v>58</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>53</v>
+      <c r="C13" s="8" t="s">
+        <v>57</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>51</v>
+      <c r="E13" s="8" t="s">
+        <v>56</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>50</v>
+      <c r="F13" s="8" t="s">
+        <v>55</v>
       </c>
-      <c r="G13" s="9">
-        <v>75</v>
+      <c r="G13" s="7">
+        <v>81</v>
       </c>
-      <c r="H13" s="8">
-        <v>13</v>
+      <c r="H13" s="6">
+        <v>8</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -8992,27 +9721,29 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10" t="s">
-        <v>49</v>
+      <c r="A14" s="28" t="s">
+        <v>54</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>48</v>
+      <c r="B14" s="8" t="s">
+        <v>53</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>47</v>
+      <c r="E14" s="8" t="s">
+        <v>51</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>46</v>
+      <c r="F14" s="8" t="s">
+        <v>50</v>
       </c>
-      <c r="G14" s="9">
-        <v>70</v>
+      <c r="G14" s="7">
+        <v>75</v>
       </c>
-      <c r="H14" s="8">
-        <v>20</v>
+      <c r="H14" s="6">
+        <v>13</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -9034,29 +9765,27 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>45</v>
+      <c r="A15" s="29"/>
+      <c r="B15" s="8" t="s">
+        <v>49</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>44</v>
+      <c r="C15" s="8" t="s">
+        <v>48</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>42</v>
+      <c r="E15" s="8" t="s">
+        <v>47</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>41</v>
+      <c r="F15" s="8" t="s">
+        <v>46</v>
       </c>
-      <c r="G15" s="9">
-        <v>68</v>
+      <c r="G15" s="7">
+        <v>70</v>
       </c>
-      <c r="H15" s="8">
-        <v>40</v>
+      <c r="H15" s="6">
+        <v>20</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -9077,28 +9806,30 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="10" t="s">
-        <v>40</v>
+    <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>45</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>39</v>
+      <c r="B16" s="8" t="s">
+        <v>44</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>37</v>
+      <c r="E16" s="8" t="s">
+        <v>42</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>36</v>
+      <c r="F16" s="8" t="s">
+        <v>41</v>
       </c>
-      <c r="G16" s="9">
-        <v>62</v>
+      <c r="G16" s="7">
+        <v>68</v>
       </c>
-      <c r="H16" s="8">
-        <v>8</v>
+      <c r="H16" s="6">
+        <v>20</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -9119,29 +9850,27 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>35</v>
+    <row r="17" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="8" t="s">
+        <v>40</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>34</v>
+      <c r="C17" s="8" t="s">
+        <v>39</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>33</v>
+      <c r="D17" s="8" t="s">
+        <v>38</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>7</v>
+      <c r="E17" s="8" t="s">
+        <v>37</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>32</v>
+      <c r="F17" s="11" t="s">
+        <v>36</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>31</v>
+      <c r="G17" s="7">
+        <v>62</v>
       </c>
-      <c r="G17" s="9">
-        <v>50</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="H17" s="6">
         <v>8</v>
       </c>
       <c r="I17" s="2"/>
@@ -9164,26 +9893,28 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="10" t="s">
-        <v>30</v>
+      <c r="A18" s="28" t="s">
+        <v>35</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>29</v>
+      <c r="B18" s="8" t="s">
+        <v>34</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>28</v>
+      <c r="E18" s="8" t="s">
+        <v>32</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>27</v>
+      <c r="F18" s="8" t="s">
+        <v>31</v>
       </c>
-      <c r="G18" s="9">
-        <v>48</v>
+      <c r="G18" s="7">
+        <v>50</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="6">
         <v>13</v>
       </c>
       <c r="I18" s="2"/>
@@ -9206,26 +9937,26 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="10" t="s">
-        <v>26</v>
+      <c r="A19" s="30"/>
+      <c r="B19" s="8" t="s">
+        <v>30</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>25</v>
+      <c r="C19" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>24</v>
+      <c r="E19" s="8" t="s">
+        <v>28</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>23</v>
+      <c r="F19" s="8" t="s">
+        <v>27</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <v>48</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <v>13</v>
       </c>
       <c r="I19" s="2"/>
@@ -9248,27 +9979,27 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="10" t="s">
-        <v>9</v>
+      <c r="A20" s="30"/>
+      <c r="B20" s="8" t="s">
+        <v>26</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>22</v>
+      <c r="C20" s="8" t="s">
+        <v>25</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>21</v>
+      <c r="E20" s="8" t="s">
+        <v>24</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>20</v>
+      <c r="F20" s="8" t="s">
+        <v>23</v>
       </c>
-      <c r="G20" s="9">
-        <v>47</v>
+      <c r="G20" s="7">
+        <v>48</v>
       </c>
-      <c r="H20" s="8">
-        <v>8</v>
+      <c r="H20" s="6">
+        <v>13</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -9290,29 +10021,27 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>19</v>
+      <c r="A21" s="29"/>
+      <c r="B21" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>18</v>
+      <c r="C21" s="8" t="s">
+        <v>22</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>16</v>
+      <c r="E21" s="8" t="s">
+        <v>21</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>15</v>
+      <c r="F21" s="8" t="s">
+        <v>20</v>
       </c>
-      <c r="G21" s="9">
-        <v>42</v>
+      <c r="G21" s="7">
+        <v>47</v>
       </c>
-      <c r="H21" s="8">
-        <v>8</v>
+      <c r="H21" s="6">
+        <v>5</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -9334,27 +10063,29 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="10" t="s">
-        <v>14</v>
+      <c r="A22" s="28" t="s">
+        <v>19</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>13</v>
+      <c r="B22" s="8" t="s">
+        <v>18</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>12</v>
+      <c r="E22" s="8" t="s">
+        <v>16</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>11</v>
+      <c r="F22" s="11" t="s">
+        <v>15</v>
       </c>
-      <c r="G22" s="9">
-        <v>38</v>
+      <c r="G22" s="7">
+        <v>42</v>
       </c>
-      <c r="H22" s="8">
-        <v>13</v>
+      <c r="H22" s="6">
+        <v>8</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -9375,30 +10106,28 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>10</v>
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>9</v>
+      <c r="C23" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>6</v>
+      <c r="E23" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>5</v>
+      <c r="F23" s="11" t="s">
+        <v>11</v>
       </c>
-      <c r="G23" s="9">
-        <v>25</v>
+      <c r="G23" s="7">
+        <v>38</v>
       </c>
-      <c r="H23" s="8">
-        <v>20</v>
+      <c r="H23" s="6">
+        <v>13</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -9419,15 +10148,31 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+    <row r="24" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="7">
+        <v>25</v>
+      </c>
+      <c r="H24" s="6">
+        <v>13</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -9559,18 +10304,12 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+    <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -9594,17 +10333,17 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>44509</v>
+      <c r="A30" s="5" t="s">
+        <v>4</v>
       </c>
-      <c r="B30" s="4">
-        <v>1.1000000000000001</v>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>1</v>
+      <c r="C30" s="26" t="s">
+        <v>2</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -9628,17 +10367,17 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>44519</v>
+      <c r="A31" s="4">
+        <v>44505</v>
       </c>
-      <c r="B31" s="4">
-        <v>1.2</v>
+      <c r="B31" s="3">
+        <v>1.1000000000000001</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>0</v>
+      <c r="C31" s="27" t="s">
+        <v>1</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -9661,12 +10400,18 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>44519</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -36989,17 +37734,45 @@
       <c r="Y1007" s="2"/>
       <c r="Z1007" s="2"/>
     </row>
+    <row r="1008" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1008" s="2"/>
+      <c r="B1008" s="2"/>
+      <c r="C1008" s="2"/>
+      <c r="D1008" s="2"/>
+      <c r="E1008" s="2"/>
+      <c r="F1008" s="2"/>
+      <c r="G1008" s="2"/>
+      <c r="H1008" s="2"/>
+      <c r="I1008" s="2"/>
+      <c r="J1008" s="2"/>
+      <c r="K1008" s="2"/>
+      <c r="L1008" s="2"/>
+      <c r="M1008" s="2"/>
+      <c r="N1008" s="2"/>
+      <c r="O1008" s="2"/>
+      <c r="P1008" s="2"/>
+      <c r="Q1008" s="2"/>
+      <c r="R1008" s="2"/>
+      <c r="S1008" s="2"/>
+      <c r="T1008" s="2"/>
+      <c r="U1008" s="2"/>
+      <c r="V1008" s="2"/>
+      <c r="W1008" s="2"/>
+      <c r="X1008" s="2"/>
+      <c r="Y1008" s="2"/>
+      <c r="Z1008" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40006,8 +40779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -41006,7 +41779,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -42004,7 +42779,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -43002,8 +43779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -44002,8 +44779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -45997,1004 +46774,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A21:A1000"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="26" width="9.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
@@ -47992,4 +47771,1002 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A21:A1000"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="26" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>